--- a/CSOF5204 Arquitectura de Software/0609PrimeraEntregaSAD.xlsx
+++ b/CSOF5204 Arquitectura de Software/0609PrimeraEntregaSAD.xlsx
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -555,6 +555,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,7 +1579,7 @@
       <c r="F10" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="33" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1627,7 +1630,7 @@
       <c r="F13" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="36" t="s">
         <v>85</v>
       </c>
     </row>
